--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/oldschool-common.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/oldschool-common.xlsx
@@ -96,8 +96,7 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -105,15 +104,15 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{1}: This creature gains first strike until end of turn.
-{1}: This creature gains banding until end of turn. (Any creatures with banding, and up to one without, can attack in a band. Bands are blocked as a group. If any creatures with banding you control are blocking or being blocked by a creature, you divide that creature's combat damage, not its controller, among any of the creatures it's being blocked by or is blocking.)</t>
+          <t>Nonwhite creatures get -1/-1 until end of turn.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t>➤ 1 white</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 white</t>
         </r>
       </text>
     </comment>
@@ -144,7 +143,7 @@
     <comment ref="D8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 0/2
+          <t xml:space="preserve">P/T: 1/1
 Border: black
 Finish: normal</t>
         </r>
@@ -153,10 +152,8 @@
     <comment ref="E8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">This creature enters with three credit counters on it.
-When this creature enters, it deals 3 damage to you.
-At the beginning of your upkeep, put a credit counter on this creature.
-Sacrifice this creature: You gain 1 life for each credit counter on this creature. Activate only during your upkeep.</t>
+          <t xml:space="preserve">{1}: This creature gains first strike until end of turn.
+{1}: This creature gains banding until end of turn. (Any creatures with banding, and up to one without, can attack in a band. Bands are blocked as a group. If any creatures with banding you control are blocking or being blocked by a creature, you divide that creature's combat damage, not its controller, among any of the creatures it's being blocked by or is blocking.)</t>
         </r>
       </text>
     </comment>
@@ -170,36 +167,35 @@
     <comment ref="D9" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/2
+          <t xml:space="preserve">P/T: 0/2
 Border: black
 Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">This creature enters with three credit counters on it.
+When this creature enters, it deals 3 damage to you.
+At the beginning of your upkeep, put a credit counter on this creature.
+Sacrifice this creature: You gain 1 life for each credit counter on this creature. Activate only during your upkeep.</t>
         </r>
       </text>
     </comment>
     <comment ref="I9" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 white</t>
+          <t>➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D10" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/1
+          <t xml:space="preserve">P/T: 1/2
 Border: black
-Finish: normal
-Keywords:
-➤ Defender</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Defender (This creature can't attack.)
-Whenever this creature blocks a creature, if at least one other Wall creature is blocking that creature and no non-Wall creatures are blocking that creature, this creature gains banding until end of turn. (If any creatures with banding you control are blocking a creature, you divide that creature's combat damage, not its controller, among any of the creatures it's being blocked by.)</t>
+Finish: normal</t>
         </r>
       </text>
     </comment>
@@ -214,22 +210,26 @@
     <comment ref="D11" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">P/T: 2/1
+Border: black
+Finish: normal
+Keywords:
+➤ Defender</t>
         </r>
       </text>
     </comment>
     <comment ref="E11" authorId="0">
       <text>
         <r>
-          <t>Nonwhite creatures get -1/-1 until end of turn.</t>
+          <t xml:space="preserve">Defender (This creature can't attack.)
+Whenever this creature blocks a creature, if at least one other Wall creature is blocking that creature and no non-Wall creatures are blocking that creature, this creature gains banding until end of turn. (If any creatures with banding you control are blocking a creature, you divide that creature's combat damage, not its controller, among any of the creatures it's being blocked by.)</t>
         </r>
       </text>
     </comment>
     <comment ref="I11" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 white</t>
         </r>
       </text>
@@ -297,8 +297,7 @@
     <comment ref="D5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -306,15 +305,14 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>{U}, {T}: Counter target spell unless its controller pays {1}.</t>
+          <t>Until end of turn, whenever a player taps an Island for mana, that player adds an additional {U}.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 1 blue</t>
+          <t>➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -330,21 +328,23 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>This creature gets +0/+1 as long as an opponent controls an Island.</t>
+          <t>{U}, {T}: Counter target spell unless its controller pays {1}.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t>➤ 1 blue</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 blue</t>
         </r>
       </text>
     </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 1/1
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -352,7 +352,7 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>Until end of turn, whenever a player taps an Island for mana, that player adds an additional {U}.</t>
+          <t>This creature gets +0/+1 as long as an opponent controls an Island.</t>
         </r>
       </text>
     </comment>
@@ -453,8 +453,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -462,7 +461,8 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>{T}: Look at the top three cards of target player's library.</t>
+          <t xml:space="preserve">As an additional cost to cast this spell, sacrifice a Goblin.
+Goblin Grenade deals 5 damage to any target.</t>
         </r>
       </text>
     </comment>
@@ -476,7 +476,8 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 1/1
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -484,8 +485,7 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">As an additional cost to cast this spell, sacrifice a Goblin.
-Goblin Grenade deals 5 damage to any target.</t>
+          <t>{T}: Look at the top three cards of target player's library.</t>
         </r>
       </text>
     </comment>
@@ -509,8 +509,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -518,15 +517,14 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>{1}{G}, {T}: Target creature doesn't untap during its controller's next untap step.</t>
+          <t>{1}{G}: Target blocking creature gets +0/+1 until end of turn.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 green</t>
+          <t>➤ 1 green</t>
         </r>
       </text>
     </comment>
@@ -542,18 +540,65 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>{G}, {T}: Untap target attacking creature you control. Prevent all combat damage that would be dealt to and dealt by it this turn.</t>
+          <t>{1}{G}, {T}: Target creature doesn't untap during its controller's next untap step.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">➤ 1 generic
+➤ 1 green</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">P/T: 1/1
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <t>{G}, {T}: Untap target attacking creature you control. Prevent all combat damage that would be dealt to and dealt by it this turn.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
           <t>➤ 1 green</t>
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">{0}: You may put a basic Forest card from your hand onto the battlefield. Activate only as a sorcery and only once each turn.
+Sacrifice this enchantment: Add {G}{G}.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <t>➤ 2 green</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 2/1
@@ -564,14 +609,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <t>First strike</t>
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
@@ -579,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 2/2
@@ -588,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">At the beginning of your upkeep, put a spore counter on this creature.
@@ -596,56 +641,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
 ➤ 2 green</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <t>{1}{G}: Target blocking creature gets +0/+1 until end of turn.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0">
-      <text>
-        <r>
-          <t>➤ 1 green</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">{0}: You may put a basic Forest card from your hand onto the battlefield. Activate only as a sorcery and only once each turn.
-Sacrifice this enchantment: Add {G}{G}.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0">
-      <text>
-        <r>
-          <t>➤ 2 green</t>
         </r>
       </text>
     </comment>
@@ -797,6 +797,27 @@
     <t>0.08</t>
   </si>
   <si>
+    <t>Holy Light</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>drk</t>
+  </si>
+  <si>
+    <t>The Dark</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>Open Holy Light</t>
+  </si>
+  <si>
     <t>Icatian Infantry</t>
   </si>
   <si>
@@ -836,12 +857,6 @@
     <t>Squire</t>
   </si>
   <si>
-    <t>drk</t>
-  </si>
-  <si>
-    <t>The Dark</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -867,21 +882,6 @@
   </si>
   <si>
     <t>Open Wall of Caltrops</t>
-  </si>
-  <si>
-    <t>Holy Light</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>Open Holy Light</t>
   </si>
   <si>
     <t>Oldschool (Common) - Blue</t>
@@ -929,6 +929,21 @@
     <t>Open Giant Shark</t>
   </si>
   <si>
+    <t>High Tide</t>
+  </si>
+  <si>
+    <t>18b</t>
+  </si>
+  <si>
+    <t>{U}</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>Open High Tide</t>
+  </si>
+  <si>
     <t>Vodalian Mage</t>
   </si>
   <si>
@@ -953,25 +968,10 @@
     <t>38</t>
   </si>
   <si>
-    <t>{U}</t>
-  </si>
-  <si>
     <t>0.26</t>
   </si>
   <si>
     <t>Open Water Wurm</t>
-  </si>
-  <si>
-    <t>High Tide</t>
-  </si>
-  <si>
-    <t>18b</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>Open High Tide</t>
   </si>
   <si>
     <t>Oldschool (Common) - Black</t>
@@ -1019,6 +1019,24 @@
     <t>Oldschool (Common) - Red</t>
   </si>
   <si>
+    <t>Goblin Grenade</t>
+  </si>
+  <si>
+    <t>56b</t>
+  </si>
+  <si>
+    <t>{R}</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>Open Goblin Grenade</t>
+  </si>
+  <si>
     <t>Orcish Spy</t>
   </si>
   <si>
@@ -1028,31 +1046,34 @@
     <t>61c</t>
   </si>
   <si>
-    <t>{R}</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>0.13</t>
   </si>
   <si>
     <t>Open Orcish Spy</t>
   </si>
   <si>
-    <t>Goblin Grenade</t>
+    <t>Oldschool (Common) - Green</t>
   </si>
   <si>
-    <t>56b</t>
+    <t>Elven Fortress</t>
   </si>
   <si>
-    <t>0.49</t>
+    <t>Enchantment</t>
   </si>
   <si>
-    <t>Open Goblin Grenade</t>
+    <t>65c</t>
   </si>
   <si>
-    <t>Oldschool (Common) - Green</t>
+    <t>{G}</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>Open Elven Fortress</t>
   </si>
   <si>
     <t>Elvish Hunter</t>
@@ -1067,9 +1088,6 @@
     <t>{1}{G}</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Open Elvish Hunter</t>
   </si>
   <si>
@@ -1082,13 +1100,25 @@
     <t>68a</t>
   </si>
   <si>
-    <t>{G}</t>
-  </si>
-  <si>
     <t>0.12</t>
   </si>
   <si>
     <t>Open Elvish Scout</t>
+  </si>
+  <si>
+    <t>Gaea's Touch</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>{G}{G}</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>Open Gaea's Touch</t>
   </si>
   <si>
     <t>Hornet Cobra</t>
@@ -1122,36 +1152,6 @@
   </si>
   <si>
     <t>Open Thorn Thallid</t>
-  </si>
-  <si>
-    <t>Elven Fortress</t>
-  </si>
-  <si>
-    <t>Enchantment</t>
-  </si>
-  <si>
-    <t>65c</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>Open Elven Fortress</t>
-  </si>
-  <si>
-    <t>Gaea's Touch</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>{G}{G}</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>Open Gaea's Touch</t>
   </si>
   <si>
     <t>Oldschool (Common) - Multicolor</t>
@@ -1227,7 +1227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1259,39 +1259,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,34 +1288,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,31 +1861,31 @@
         <v>38</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J6" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>23</v>
@@ -1946,18 +1894,18 @@
         <v>23</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>16</v>
@@ -1966,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
@@ -1975,7 +1923,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>22</v>
@@ -1990,10 +1938,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2019,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>22</v>
@@ -2034,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>49</v>
@@ -2042,10 +1990,10 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>16</v>
@@ -2054,22 +2002,22 @@
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>23</v>
@@ -2098,19 +2046,19 @@
         <v>17</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="J10" s="9">
         <v>2</v>
@@ -2133,31 +2081,31 @@
         <v>62</v>
       </c>
       <c r="B11" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>23</v>
@@ -5497,10 +5445,10 @@
         <v>69</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>70</v>
@@ -5541,10 +5489,10 @@
         <v>77</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>78</v>
@@ -5579,10 +5527,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>34</v>
@@ -5591,13 +5539,13 @@
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="J5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>72</v>
@@ -5606,7 +5554,7 @@
         <v>72</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>86</v>
@@ -5617,7 +5565,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>16</v>
@@ -5629,10 +5577,10 @@
         <v>88</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>89</v>
@@ -5641,7 +5589,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>72</v>
@@ -5650,39 +5598,39 @@
         <v>72</v>
       </c>
       <c r="M6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>94</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -9042,97 +8990,97 @@
         <v>102</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>2</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>2</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -12443,16 +12391,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>34</v>
@@ -12461,68 +12409,68 @@
         <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="17">
+      <c r="F4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15832,13 +15780,13 @@
         <v>124</v>
       </c>
       <c r="B3" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>125</v>
@@ -15856,7 +15804,7 @@
         <v>127</v>
       </c>
       <c r="J3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>128</v>
@@ -15865,18 +15813,18 @@
         <v>128</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>16</v>
@@ -15885,7 +15833,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>34</v>
@@ -15894,13 +15842,13 @@
         <v>35</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>128</v>
@@ -15909,7 +15857,7 @@
         <v>128</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>135</v>
@@ -15932,19 +15880,19 @@
         <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>138</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>128</v>
@@ -15953,15 +15901,15 @@
         <v>128</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
@@ -15970,25 +15918,25 @@
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="J6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>128</v>
@@ -15997,97 +15945,97 @@
         <v>128</v>
       </c>
       <c r="M6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="19">
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="J8" s="13">
+        <v>3</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L8" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="13" t="s">
         <v>156</v>
       </c>
     </row>
@@ -19397,46 +19345,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>2</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
         <v>164</v>
       </c>
     </row>
